--- a/main/BOM.xlsx
+++ b/main/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Documents\Repositories\Cubesat\SPV1040\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC66E4-C287-4F5F-8941-0C9CF2FBAC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D07AF74-E53B-4701-A8F3-3BC1251C0983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,7 +914,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
